--- a/meterial/아이템시세.xlsx
+++ b/meterial/아이템시세.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
   <si>
     <t>아이템 시세</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oil_processed</t>
   </si>
   <si>
@@ -373,10 +365,6 @@
   </si>
   <si>
     <t>electricfishing</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>레드불</t>
@@ -943,15 +931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -963,31 +953,31 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1003,8 +993,14 @@
       <c r="D5" s="2">
         <v>2000</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <f>D5*0.8</f>
+        <v>1600</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5*1.2</f>
+        <v>2400</v>
+      </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
@@ -1024,8 +1020,14 @@
       <c r="D6" s="2">
         <v>3000</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E69" si="0">D6*0.8</f>
+        <v>2400</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F69" si="1">D6*1.2</f>
+        <v>3600</v>
+      </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -1045,8 +1047,14 @@
       <c r="D7" s="2">
         <v>1000</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
@@ -1066,8 +1074,14 @@
       <c r="D8" s="2">
         <v>500</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
@@ -1087,8 +1101,14 @@
       <c r="D9" s="2">
         <v>1500</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
       <c r="G9" s="2">
         <v>5</v>
       </c>
@@ -1108,8 +1128,14 @@
       <c r="D10" s="2">
         <v>5000</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
       <c r="G10" s="2">
         <v>15</v>
       </c>
@@ -1129,8 +1155,14 @@
       <c r="D11" s="2">
         <v>1500</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
@@ -1152,8 +1184,14 @@
       <c r="D12" s="2">
         <v>100000</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
@@ -1175,8 +1213,14 @@
       <c r="D13" s="2">
         <v>20000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
       <c r="G13" s="2">
         <v>15</v>
       </c>
@@ -1198,8 +1242,14 @@
       <c r="D14" s="2">
         <v>2000</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
       <c r="G14" s="2">
         <v>5</v>
       </c>
@@ -1221,8 +1271,14 @@
       <c r="D15" s="2">
         <v>2000</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
@@ -1242,8 +1298,14 @@
       <c r="D16" s="2">
         <v>70000</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
       <c r="G16" s="2">
         <v>5</v>
       </c>
@@ -1263,8 +1325,14 @@
       <c r="D17" s="2">
         <v>100000</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
@@ -1290,9 +1358,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1303,17 +1369,23 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>3500</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
       <c r="G20" s="2">
         <v>6</v>
       </c>
@@ -1322,15 +1394,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1341,17 +1411,23 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>2000</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
       <c r="G22" s="2">
         <v>3</v>
       </c>
@@ -1360,15 +1436,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1379,17 +1453,23 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>3400</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>4080</v>
+      </c>
       <c r="G24" s="2">
         <v>3</v>
       </c>
@@ -1398,15 +1478,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1417,17 +1495,23 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1600</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
@@ -1436,10 +1520,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1453,17 +1537,23 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>1800</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
@@ -1472,17 +1562,23 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>750</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
       <c r="G29" s="2">
         <v>4</v>
       </c>
@@ -1491,17 +1587,23 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>2500</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
@@ -1510,10 +1612,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1527,17 +1629,23 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>2150</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>1720</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>2580</v>
+      </c>
       <c r="G32" s="2">
         <v>5</v>
       </c>
@@ -1557,10 +1665,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1576,10 +1684,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2">
         <v>5000</v>
@@ -1587,8 +1695,14 @@
       <c r="D35" s="2">
         <v>4000</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
       <c r="G35" s="2">
         <v>4</v>
       </c>
@@ -1599,10 +1713,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1618,10 +1732,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2">
         <v>3850</v>
@@ -1629,8 +1743,14 @@
       <c r="D37" s="2">
         <v>2550</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>3060</v>
+      </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
@@ -1641,10 +1761,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1660,17 +1780,23 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>5600</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>4480</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>6720</v>
+      </c>
       <c r="G39" s="2">
         <v>4</v>
       </c>
@@ -1692,10 +1818,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2">
         <v>2000</v>
@@ -1703,8 +1829,14 @@
       <c r="D41" s="2">
         <v>500</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
@@ -1715,10 +1847,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2">
         <v>200</v>
@@ -1726,8 +1858,14 @@
       <c r="D42" s="2">
         <v>100</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
@@ -1738,10 +1876,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2">
         <v>100</v>
@@ -1749,8 +1887,14 @@
       <c r="D43" s="2">
         <v>50</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
@@ -1761,10 +1905,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2">
         <v>800</v>
@@ -1772,8 +1916,14 @@
       <c r="D44" s="2">
         <v>350</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
@@ -1784,10 +1934,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2">
         <v>780</v>
@@ -1795,8 +1945,14 @@
       <c r="D45" s="2">
         <v>330</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
@@ -1807,10 +1963,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2">
         <v>500</v>
@@ -1818,8 +1974,14 @@
       <c r="D46" s="2">
         <v>250</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
@@ -1830,10 +1992,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2">
         <v>400</v>
@@ -1841,8 +2003,14 @@
       <c r="D47" s="2">
         <v>160</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
@@ -1864,10 +2032,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2">
         <v>300</v>
@@ -1875,8 +2043,14 @@
       <c r="D49" s="2">
         <v>500</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
       <c r="G49" s="2">
         <v>2</v>
       </c>
@@ -1885,10 +2059,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2">
         <v>850</v>
@@ -1896,8 +2070,14 @@
       <c r="D50" s="2">
         <v>750</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
@@ -1908,17 +2088,23 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <v>450</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
       <c r="G51" s="2">
         <v>2</v>
       </c>
@@ -1927,10 +2113,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2">
         <v>1200</v>
@@ -1938,8 +2124,14 @@
       <c r="D52" s="2">
         <v>1000</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
@@ -1950,17 +2142,23 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
         <v>900</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
       <c r="G53" s="2">
         <v>2</v>
       </c>
@@ -1969,10 +2167,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2">
         <v>1300</v>
@@ -1980,8 +2178,14 @@
       <c r="D54" s="2">
         <v>1100</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
@@ -1992,17 +2196,23 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
         <v>1150</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>1380</v>
+      </c>
       <c r="G55" s="2">
         <v>4</v>
       </c>
@@ -2011,10 +2221,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2">
         <v>2300</v>
@@ -2022,8 +2232,14 @@
       <c r="D56" s="2">
         <v>1650</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
       <c r="G56" s="2">
         <v>2</v>
       </c>
@@ -2034,17 +2250,23 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
         <v>4000</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
       <c r="G57" s="2">
         <v>6</v>
       </c>
@@ -2053,10 +2275,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2">
         <v>6250</v>
@@ -2064,8 +2286,14 @@
       <c r="D58" s="2">
         <v>5300</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="2">
+        <f t="shared" si="0"/>
+        <v>4240</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>6360</v>
+      </c>
       <c r="G58" s="2">
         <v>3</v>
       </c>
@@ -2076,17 +2304,23 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
         <v>2500</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
       <c r="G59" s="2">
         <v>4</v>
       </c>
@@ -2095,10 +2329,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2">
         <v>4600</v>
@@ -2106,8 +2340,14 @@
       <c r="D60" s="2">
         <v>3400</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>4080</v>
+      </c>
       <c r="G60" s="2">
         <v>2</v>
       </c>
@@ -2118,17 +2358,23 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
         <v>8000</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="2">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
       <c r="G61" s="2">
         <v>6</v>
       </c>
@@ -2137,10 +2383,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2">
         <v>9100</v>
@@ -2148,8 +2394,14 @@
       <c r="D62" s="2">
         <v>8300</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="2">
+        <f t="shared" si="0"/>
+        <v>6640</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>9960</v>
+      </c>
       <c r="G62" s="2">
         <v>3</v>
       </c>
@@ -2160,17 +2412,23 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
         <v>9000</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="2">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
       <c r="G63" s="2">
         <v>6</v>
       </c>
@@ -2181,10 +2439,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2">
         <v>12000</v>
@@ -2192,8 +2450,14 @@
       <c r="D64" s="2">
         <v>10000</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="2">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
       <c r="G64" s="2">
         <v>2</v>
       </c>
@@ -2202,17 +2466,23 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
         <v>3300</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="2">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>3960</v>
+      </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
@@ -2221,10 +2491,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2">
         <v>5000</v>
@@ -2232,8 +2502,14 @@
       <c r="D66" s="2">
         <v>4500</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="2">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
@@ -2242,17 +2518,23 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
         <v>6000</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="E67" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
@@ -2261,10 +2543,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2">
         <v>8000</v>
@@ -2272,8 +2554,14 @@
       <c r="D68" s="2">
         <v>6800</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="E68" s="2">
+        <f t="shared" si="0"/>
+        <v>5440</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>8160</v>
+      </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
@@ -2284,17 +2572,23 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2">
         <v>12000</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="2">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
       <c r="G69" s="2">
         <v>2</v>
       </c>
@@ -2303,10 +2597,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2">
         <v>15500</v>
@@ -2314,8 +2608,14 @@
       <c r="D70" s="2">
         <v>13300</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="2">
+        <f t="shared" ref="E70:E79" si="2">D70*0.8</f>
+        <v>10640</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ref="F70:F79" si="3">D70*1.2</f>
+        <v>15960</v>
+      </c>
       <c r="G70" s="2">
         <v>2</v>
       </c>
@@ -2326,17 +2626,23 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2">
         <v>13000</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="2">
+        <f t="shared" si="2"/>
+        <v>10400</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
       <c r="G71" s="2">
         <v>2</v>
       </c>
@@ -2345,10 +2651,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2">
         <v>17500</v>
@@ -2356,8 +2662,14 @@
       <c r="D72" s="2">
         <v>14000</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="2">
+        <f t="shared" si="2"/>
+        <v>11200</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="3"/>
+        <v>16800</v>
+      </c>
       <c r="G72" s="2">
         <v>2</v>
       </c>
@@ -2379,17 +2691,15 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2">
         <v>3000</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
@@ -2400,17 +2710,15 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2">
         <v>1500</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
@@ -2421,10 +2729,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2">
         <v>8000</v>
@@ -2432,8 +2740,14 @@
       <c r="D76" s="2">
         <v>3000</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="2">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
       <c r="G76" s="2">
         <v>2</v>
       </c>
@@ -2442,10 +2756,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2">
         <v>50000</v>
@@ -2453,8 +2767,14 @@
       <c r="D77" s="2">
         <v>25000</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="2">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
       <c r="G77" s="2">
         <v>5</v>
       </c>
@@ -2463,10 +2783,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2">
         <v>30000</v>
@@ -2474,8 +2794,14 @@
       <c r="D78" s="2">
         <v>10000</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="E78" s="2">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
       <c r="G78" s="2">
         <v>5</v>
       </c>
@@ -2484,10 +2810,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2">
         <v>500000</v>
@@ -2495,8 +2821,14 @@
       <c r="D79" s="2">
         <v>250000</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="E79" s="2">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
       <c r="G79" s="2">
         <v>5</v>
       </c>
